--- a/paper/sac2017/summary_discover.xlsx
+++ b/paper/sac2017/summary_discover.xlsx
@@ -2382,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6238,7 +6238,18 @@
       <c r="C201">
         <v>1472677848965</v>
       </c>
-      <c r="I201" s="2"/>
+      <c r="G201">
+        <f>AVERAGE(G2:G200)</f>
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="H201">
+        <f>AVERAGE(H2:H200)</f>
+        <v>18.41</v>
+      </c>
+      <c r="I201">
+        <f>AVERAGE(I2:I200)</f>
+        <v>13.58</v>
+      </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
@@ -9263,7 +9274,7 @@
         <v>1473469350270</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I3:I66" si="0">H4-H3</f>
+        <f t="shared" ref="I4:I66" si="0">H4-H3</f>
         <v>9</v>
       </c>
     </row>
@@ -10799,7 +10810,7 @@
         <v>1473469368235</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" ref="I67:I130" si="2">H68-H67</f>
+        <f t="shared" ref="I68:I130" si="2">H68-H67</f>
         <v>9</v>
       </c>
     </row>
@@ -12335,7 +12346,7 @@
         <v>1473469382821</v>
       </c>
       <c r="I132" s="2">
-        <f t="shared" ref="I131:I194" si="4">H132-H131</f>
+        <f t="shared" ref="I132:I194" si="4">H132-H131</f>
         <v>14</v>
       </c>
     </row>
@@ -13871,7 +13882,7 @@
         <v>1473469399033</v>
       </c>
       <c r="I196" s="2">
-        <f t="shared" ref="I195:I258" si="6">H196-H195</f>
+        <f t="shared" ref="I196:I258" si="6">H196-H195</f>
         <v>16</v>
       </c>
     </row>
@@ -15363,7 +15374,7 @@
         <v>1473469416093</v>
       </c>
       <c r="I260" s="2">
-        <f t="shared" ref="I259:I322" si="7">H260-H259</f>
+        <f t="shared" ref="I260:I322" si="7">H260-H259</f>
         <v>11</v>
       </c>
     </row>
@@ -16195,7 +16206,7 @@
         <v>1473469432386</v>
       </c>
       <c r="I324" s="2">
-        <f t="shared" ref="I323:I386" si="8">H324-H323</f>
+        <f t="shared" ref="I324:I386" si="8">H324-H323</f>
         <v>15</v>
       </c>
     </row>
@@ -17027,7 +17038,7 @@
         <v>1473469453160</v>
       </c>
       <c r="I388" s="2">
-        <f t="shared" ref="I387:I410" si="9">H388-H387</f>
+        <f t="shared" ref="I388:I410" si="9">H388-H387</f>
         <v>15</v>
       </c>
     </row>

--- a/paper/sac2017/summary_discover.xlsx
+++ b/paper/sac2017/summary_discover.xlsx
@@ -15,8 +15,12 @@
     <sheet name="lgg4" sheetId="1" r:id="rId1"/>
     <sheet name="asus" sheetId="2" r:id="rId2"/>
     <sheet name="galaxy3" sheetId="3" r:id="rId3"/>
+    <sheet name="blu" sheetId="4" r:id="rId4"/>
+    <sheet name="motog4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="discover" localSheetId="3">blu!$B$2:$D$190</definedName>
+    <definedName name="discover" localSheetId="4">motog4!$B$2:$D$433</definedName>
     <definedName name="discover_1" localSheetId="2">galaxy3!$A$1:$C$256</definedName>
     <definedName name="discover_asus_zf_laser" localSheetId="1">asus!$A$1:$C$226</definedName>
     <definedName name="discover_gs3" localSheetId="2">galaxy3!$F$1:$H$410</definedName>
@@ -60,7 +64,25 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="testResult" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="discover1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\android\PbSbMid\paper\sac2017\blu_disc_conn\discover.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="discover2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\android\PbSbMid\paper\sac2017\moto_g4_disc_conn\discover.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="testResult" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\documents\papers\sac2017\testResult.txt" tab="0" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
@@ -73,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="10">
   <si>
     <t>discovery</t>
   </si>
@@ -94,6 +116,15 @@
   </si>
   <si>
     <t>Galaxy S3</t>
+  </si>
+  <si>
+    <t>BLU</t>
+  </si>
+  <si>
+    <t>MotoG4</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2133,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="testResult" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="testResult" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2115,6 +2146,14 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="discover_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="discover" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="discover" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2382,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="G201" sqref="G201"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,6 +2457,12 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
       <c r="N1">
         <v>1</v>
       </c>
@@ -2445,6 +2490,12 @@
       </c>
       <c r="I2" s="2">
         <v>11</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -2497,6 +2548,12 @@
       <c r="I4" s="2">
         <v>16</v>
       </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
       <c r="N4">
         <v>4</v>
       </c>
@@ -2548,6 +2605,12 @@
       <c r="I6" s="2">
         <v>9</v>
       </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
       <c r="N6">
         <v>6</v>
       </c>
@@ -2599,6 +2662,12 @@
       <c r="I8" s="2">
         <v>8</v>
       </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
       <c r="N8">
         <v>8</v>
       </c>
@@ -2650,6 +2719,12 @@
       <c r="I10" s="2">
         <v>8</v>
       </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>28</v>
+      </c>
       <c r="N10">
         <v>10</v>
       </c>
@@ -2701,6 +2776,12 @@
       <c r="I12" s="2">
         <v>12</v>
       </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>33</v>
+      </c>
       <c r="N12">
         <v>12</v>
       </c>
@@ -2752,6 +2833,12 @@
       <c r="I14" s="2">
         <v>10</v>
       </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
       <c r="N14">
         <v>14</v>
       </c>
@@ -2803,6 +2890,12 @@
       <c r="I16" s="2">
         <v>23</v>
       </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
       <c r="N16">
         <v>16</v>
       </c>
@@ -2854,6 +2947,12 @@
       <c r="I18" s="2">
         <v>10</v>
       </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
       <c r="N18">
         <v>18</v>
       </c>
@@ -2905,6 +3004,12 @@
       <c r="I20" s="2">
         <v>8</v>
       </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
       <c r="N20">
         <v>20</v>
       </c>
@@ -2956,6 +3061,12 @@
       <c r="I22" s="2">
         <v>14</v>
       </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
       <c r="N22">
         <v>22</v>
       </c>
@@ -3007,6 +3118,12 @@
       <c r="I24" s="2">
         <v>16</v>
       </c>
+      <c r="J24">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
       <c r="N24">
         <v>24</v>
       </c>
@@ -3058,6 +3175,12 @@
       <c r="I26" s="2">
         <v>9</v>
       </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
       <c r="N26">
         <v>26</v>
       </c>
@@ -3109,6 +3232,12 @@
       <c r="I28" s="2">
         <v>9</v>
       </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>29</v>
+      </c>
       <c r="N28">
         <v>28</v>
       </c>
@@ -3160,6 +3289,12 @@
       <c r="I30" s="2">
         <v>9</v>
       </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>11</v>
+      </c>
       <c r="N30">
         <v>30</v>
       </c>
@@ -3203,8 +3338,14 @@
       <c r="I32" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3220,7 +3361,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3239,8 +3380,14 @@
       <c r="I34" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3256,7 +3403,7 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3275,8 +3422,14 @@
       <c r="I36" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3292,7 +3445,7 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3311,8 +3464,14 @@
       <c r="I38" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3328,7 +3487,7 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3347,8 +3506,14 @@
       <c r="I40" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3529,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3383,8 +3548,14 @@
       <c r="I42" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3571,7 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3419,8 +3590,14 @@
       <c r="I44" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3613,7 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3455,8 +3632,14 @@
       <c r="I46" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3655,7 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3491,8 +3674,14 @@
       <c r="I48" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="K48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3697,7 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3527,8 +3716,14 @@
       <c r="I50" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>15</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3544,7 +3739,7 @@
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3563,8 +3758,14 @@
       <c r="I52" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3580,7 +3781,7 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3599,8 +3800,14 @@
       <c r="I54" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>16</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3823,7 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3635,8 +3842,14 @@
       <c r="I56" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>15</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3652,7 +3865,7 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3671,8 +3884,14 @@
       <c r="I58" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>14</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3907,7 @@
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3707,8 +3926,14 @@
       <c r="I60" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>11</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3724,7 +3949,7 @@
       </c>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3743,8 +3968,14 @@
       <c r="I62" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3991,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3779,8 +4010,14 @@
       <c r="I64" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>16</v>
+      </c>
+      <c r="K64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3796,7 +4033,7 @@
       </c>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3815,8 +4052,14 @@
       <c r="I66" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3832,7 +4075,7 @@
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -3851,8 +4094,14 @@
       <c r="I68" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +4117,7 @@
       </c>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -3887,8 +4136,14 @@
       <c r="I70" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>11</v>
+      </c>
+      <c r="K70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3904,7 +4159,7 @@
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3923,8 +4178,14 @@
       <c r="I72" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>18</v>
+      </c>
+      <c r="K72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3940,7 +4201,7 @@
       </c>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3959,8 +4220,14 @@
       <c r="I74" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>15</v>
+      </c>
+      <c r="K74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3976,7 +4243,7 @@
       </c>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3995,8 +4262,14 @@
       <c r="I76" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>9</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4285,7 @@
       </c>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -4031,8 +4304,14 @@
       <c r="I78" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>15</v>
+      </c>
+      <c r="K78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -4048,7 +4327,7 @@
       </c>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -4067,8 +4346,14 @@
       <c r="I80" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>12</v>
+      </c>
+      <c r="K80">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -4084,7 +4369,7 @@
       </c>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -4103,8 +4388,14 @@
       <c r="I82" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>13</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -4120,7 +4411,7 @@
       </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -4139,8 +4430,14 @@
       <c r="I84" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>15</v>
+      </c>
+      <c r="K84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -4156,7 +4453,7 @@
       </c>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -4175,8 +4472,14 @@
       <c r="I86" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>17</v>
+      </c>
+      <c r="K86">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -4192,7 +4495,7 @@
       </c>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4211,8 +4514,14 @@
       <c r="I88" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>14</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4537,7 @@
       </c>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -4247,8 +4556,14 @@
       <c r="I90" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>9</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -4264,7 +4579,7 @@
       </c>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -4283,8 +4598,14 @@
       <c r="I92" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>15</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -4300,7 +4621,7 @@
       </c>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -4319,8 +4640,14 @@
       <c r="I94" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>17</v>
+      </c>
+      <c r="K94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -4336,7 +4663,7 @@
       </c>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -4355,8 +4682,14 @@
       <c r="I96" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>11</v>
+      </c>
+      <c r="K96">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -4372,7 +4705,7 @@
       </c>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -4391,8 +4724,14 @@
       <c r="I98" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>17</v>
+      </c>
+      <c r="K98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -4408,7 +4747,7 @@
       </c>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -4427,8 +4766,14 @@
       <c r="I100" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>10</v>
+      </c>
+      <c r="K100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4789,7 @@
       </c>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -4463,8 +4808,14 @@
       <c r="I102" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>12</v>
+      </c>
+      <c r="K102">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -4480,7 +4831,7 @@
       </c>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -4499,8 +4850,14 @@
       <c r="I104" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>11</v>
+      </c>
+      <c r="K104">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -4516,7 +4873,7 @@
       </c>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -4535,8 +4892,14 @@
       <c r="I106" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>15</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -4552,7 +4915,7 @@
       </c>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -4571,8 +4934,14 @@
       <c r="I108" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>11</v>
+      </c>
+      <c r="K108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -4588,7 +4957,7 @@
       </c>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -4607,8 +4976,14 @@
       <c r="I110" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>14</v>
+      </c>
+      <c r="K110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -4624,7 +4999,7 @@
       </c>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -4643,8 +5018,14 @@
       <c r="I112" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>9</v>
+      </c>
+      <c r="K112">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -4660,7 +5041,7 @@
       </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4679,8 +5060,14 @@
       <c r="I114" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>10</v>
+      </c>
+      <c r="K114">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +5083,7 @@
       </c>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -4715,8 +5102,14 @@
       <c r="I116" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>10</v>
+      </c>
+      <c r="K116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -4732,7 +5125,7 @@
       </c>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -4751,8 +5144,14 @@
       <c r="I118" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>8</v>
+      </c>
+      <c r="K118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -4768,7 +5167,7 @@
       </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -4787,8 +5186,14 @@
       <c r="I120" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>9</v>
+      </c>
+      <c r="K120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4804,7 +5209,7 @@
       </c>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4823,8 +5228,14 @@
       <c r="I122" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>16</v>
+      </c>
+      <c r="K122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4840,7 +5251,7 @@
       </c>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -4859,8 +5270,14 @@
       <c r="I124" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>9</v>
+      </c>
+      <c r="K124">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -4876,7 +5293,7 @@
       </c>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4895,8 +5312,14 @@
       <c r="I126" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <v>18</v>
+      </c>
+      <c r="K126">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4912,7 +5335,7 @@
       </c>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4931,8 +5354,14 @@
       <c r="I128" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>16</v>
+      </c>
+      <c r="K128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4948,7 +5377,7 @@
       </c>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -4967,8 +5396,14 @@
       <c r="I130" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>8</v>
+      </c>
+      <c r="K130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -4984,7 +5419,7 @@
       </c>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -5003,8 +5438,14 @@
       <c r="I132" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>11</v>
+      </c>
+      <c r="K132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -5020,7 +5461,7 @@
       </c>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -5039,8 +5480,14 @@
       <c r="I134" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>9</v>
+      </c>
+      <c r="K134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -5056,7 +5503,7 @@
       </c>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -5075,8 +5522,14 @@
       <c r="I136" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>11</v>
+      </c>
+      <c r="K136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -5092,7 +5545,7 @@
       </c>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -5111,8 +5564,14 @@
       <c r="I138" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <v>16</v>
+      </c>
+      <c r="K138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -5128,7 +5587,7 @@
       </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -5147,8 +5606,14 @@
       <c r="I140" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <v>12</v>
+      </c>
+      <c r="K140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -5164,7 +5629,7 @@
       </c>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -5183,8 +5648,14 @@
       <c r="I142" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <v>12</v>
+      </c>
+      <c r="K142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -5200,7 +5671,7 @@
       </c>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -5219,8 +5690,14 @@
       <c r="I144" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <v>10</v>
+      </c>
+      <c r="K144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -5236,7 +5713,7 @@
       </c>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -5255,8 +5732,14 @@
       <c r="I146" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>8</v>
+      </c>
+      <c r="K146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -5272,7 +5755,7 @@
       </c>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -5291,8 +5774,14 @@
       <c r="I148" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>18</v>
+      </c>
+      <c r="K148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -5308,7 +5797,7 @@
       </c>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -5327,8 +5816,14 @@
       <c r="I150" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <v>9</v>
+      </c>
+      <c r="K150">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -5344,7 +5839,7 @@
       </c>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -5363,8 +5858,14 @@
       <c r="I152" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <v>17</v>
+      </c>
+      <c r="K152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -5380,7 +5881,7 @@
       </c>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -5399,8 +5900,14 @@
       <c r="I154" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154">
+        <v>11</v>
+      </c>
+      <c r="K154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -5416,7 +5923,7 @@
       </c>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -5435,8 +5942,14 @@
       <c r="I156" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156">
+        <v>9</v>
+      </c>
+      <c r="K156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -5452,7 +5965,7 @@
       </c>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -5471,8 +5984,14 @@
       <c r="I158" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158">
+        <v>7</v>
+      </c>
+      <c r="K158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -5488,7 +6007,7 @@
       </c>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -5507,8 +6026,14 @@
       <c r="I160" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <v>17</v>
+      </c>
+      <c r="K160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +6049,7 @@
       </c>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -5543,8 +6068,14 @@
       <c r="I162" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162">
+        <v>17</v>
+      </c>
+      <c r="K162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +6091,7 @@
       </c>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -5579,8 +6110,14 @@
       <c r="I164" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164">
+        <v>11</v>
+      </c>
+      <c r="K164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -5596,7 +6133,7 @@
       </c>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -5615,8 +6152,14 @@
       <c r="I166" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166">
+        <v>11</v>
+      </c>
+      <c r="K166">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -5632,7 +6175,7 @@
       </c>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -5651,8 +6194,14 @@
       <c r="I168" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168">
+        <v>9</v>
+      </c>
+      <c r="K168">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -5668,7 +6217,7 @@
       </c>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -5687,8 +6236,11 @@
       <c r="I170" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -5704,7 +6256,7 @@
       </c>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -5723,8 +6275,11 @@
       <c r="I172" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -5740,7 +6295,7 @@
       </c>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -5759,8 +6314,11 @@
       <c r="I174" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -5776,7 +6334,7 @@
       </c>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -5795,8 +6353,11 @@
       <c r="I176" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -5812,7 +6373,7 @@
       </c>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -5831,8 +6392,11 @@
       <c r="I178" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -5848,7 +6412,7 @@
       </c>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -5867,8 +6431,11 @@
       <c r="I180" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -5884,7 +6451,7 @@
       </c>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -5903,8 +6470,11 @@
       <c r="I182" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -5920,7 +6490,7 @@
       </c>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -5939,8 +6509,11 @@
       <c r="I184" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -5956,7 +6529,7 @@
       </c>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -5975,8 +6548,11 @@
       <c r="I186" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -5992,7 +6568,7 @@
       </c>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -6011,8 +6587,11 @@
       <c r="I188" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -6028,7 +6607,7 @@
       </c>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -6048,7 +6627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -6064,7 +6643,7 @@
       </c>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -17332,4 +17911,7610 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E190"/>
+  <sheetViews>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1474065464677</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1474065464693</v>
+      </c>
+      <c r="E3">
+        <f>D3-D2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1474065466037</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1474065466045</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E4:E67" si="0">D5-D4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1474065466630</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1474065466640</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1474065467206</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1474065467222</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1474065467628</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1474065467638</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1474065468116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1474065468130</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1474065468680</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1474065468690</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1474065469253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1474065469267</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1474065469805</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1474065469816</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1474065470442</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1474065470450</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1474065470907</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1474065470916</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1474065471430</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1474065471447</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1474065472084</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1474065472093</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1474065472648</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1474065472661</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1474065473167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1474065473175</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1474065473742</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1474065473758</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1474065474229</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1474065474241</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1474065474664</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1474065474674</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1474065475345</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1474065475356</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1474065475864</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1474065475872</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1474065476387</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1474065476403</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1474065476914</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1474065476923</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1474065477391</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1474065477400</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1474065477879</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1474065477887</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1474065478453</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1474065478468</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1474065478889</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1474065478897</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1474065479313</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1474065479329</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1474065479813</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1474065479828</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1474065480396</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>1474065480410</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1474065480915</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1474065480926</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1474065481435</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>1474065481443</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1474065482158</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1474065482174</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1474065482867</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1474065482877</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1474065483494</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1474065483504</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E68:E131" si="1">D69-D68</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1474065484026</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>1474065484037</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1474065484536</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1474065484554</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1474065485079</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>1474065485094</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1474065485574</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1474065485583</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1474065486191</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1474065486206</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1474065486819</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1474065486831</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1474065487369</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1474065487382</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1474065487888</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>1474065487903</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1474065488494</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>1474065488511</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1474065489002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>1474065489016</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1474065489500</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>1474065489509</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1474065490042</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>1474065490057</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1474065490557</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>1474065490574</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1474065491111</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>1474065491122</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1474065491877</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>1474065491894</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1474065492493</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>1474065492503</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1474065493173</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>1474065493185</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1474065493905</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>1474065493916</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1474065500535</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>1474065500550</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1474065506745</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>1474065506756</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1474065512380</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>1474065512394</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1474065517440</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1474065517449</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1474065519174</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>1474065519184</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1474065524776</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>1474065524786</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1474065530515</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>1474065530523</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1474065536967</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>1474065536976</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1474065543496</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>1474065543512</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1474065549228</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>1474065549237</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1474065554887</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>1474065554905</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1474065560660</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>1474065560676</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1474065566242</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>1474065566250</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1474065572007</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>1474065572018</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ref="E132:E190" si="2">D133-D132</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1474065577567</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>1474065577576</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1474065583684</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>1474065583695</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1474065589782</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>1474065589798</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1474065595707</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>1474065595719</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1474065600430</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>1474065600442</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1474065605907</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>1474065605917</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1474065611864</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>1474065611872</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1474065618055</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>1474065618073</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1474065628351</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>1474065628360</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1474065636583</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>1474065636600</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1474065643975</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>1474065643986</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1474065663525</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>1474065663534</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1474065673052</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>1474065673059</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1474065684765</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>1474065684782</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1474065691518</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>1474065691535</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1474065700572</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>1474065700583</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>1474065707509</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>1474065707520</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1474065713734</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>1474065713743</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1474065725738</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>1474065725747</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1474065732720</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>1474065732733</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1474065739253</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>1474065739268</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>1474065745595</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>1474065745608</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1474065774261</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>1474065774270</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1474065780983</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>1474065780997</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>1474065789579</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>1474065789596</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1474065795687</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>1474065795700</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>1474065800474</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>1474065800490</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1474065807240</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>1474065807248</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1474065818748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E433"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E433" sqref="E3:E433"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1473987869073</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1473987869080</v>
+      </c>
+      <c r="E3">
+        <f>D3-D2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1473988244476</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1473988244494</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E4:E67" si="0">D5-D4</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1474007452086</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1474007452103</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1474065646463</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1474065646476</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1474065652781</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1474065652809</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1474065653451</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1474065653484</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1474065654056</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1474065654330</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1474065654537</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1474065654947</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1474065655267</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1474065656000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1474065656565</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1474065656774</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1474065657031</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1474065657460</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1474065657545</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1474065658039</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1474065658328</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1474065658505</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1474065658917</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1474065659053</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1474065659449</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1474065659766</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1474065659895</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1474065660268</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1474065660476</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1474065660790</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1474065661218</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1474065661224</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1474065661626</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1474065661931</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1474065662082</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1474065662479</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1474065662618</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1474065662911</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1474065663344</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1474065663347</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1474065663614</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1474065664020</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1474065664105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1474065664509</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1474065664913</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1474065664966</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1474065665362</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1474065665641</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1474065665744</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1474065666305</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1474065666408</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1474065666770</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1474065667185</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>1474065667239</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1474065667624</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1474065668059</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1474065668066</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>1474065668069</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1474065668073</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1474065668078</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1474065668081</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1474065668084</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1474065668100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1474065668104</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1474065668181</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>1474065668198</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E68:E131" si="1">D71-D70</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1474065668551</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1474065668563</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1474065669015</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>1474065669027</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1474065669421</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1474065669426</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1474065669844</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1474065669855</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1474065670307</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1474065670705</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>1474065670825</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1474065670828</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1474065671218</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>1474065671566</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1474065671682</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1474065672337</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1474065672375</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>1474065673121</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1474065680935</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>1474065680958</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1474065681541</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>1474065681714</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1474065682749</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>1474065682755</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1474065683611</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>1474065683640</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1474065695351</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>1474065695362</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1474065695734</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>1474065695743</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1474065695989</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>1474065696009</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1474065696303</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>1474065696518</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1474065696735</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1474065697066</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>1474065697282</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1474065697480</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1474065697861</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>1474065697997</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1474065698225</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1474065698772</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>1474065698774</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>1474065698785</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1474065698790</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1474065699203</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>1474065699534</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>1474065699547</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1474065699578</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>1474065699589</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1474065699981</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>1474065699988</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1474065701060</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>1474065701078</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1474065701391</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1474065701806</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>1474065701854</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>1474065701859</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1474065702161</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1474065702550</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>1474065702601</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1474065702940</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>1474065703395</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1474065703604</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1474065703992</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>1474065704110</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1474065704473</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>1474065704757</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>1474065704802</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>1474065704814</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1474065704954</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>1474065704963</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ref="E132:E195" si="2">D143-D142</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1474065705417</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>1474065705566</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1474065705807</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>1474065706321</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1474065706512</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1474065706793</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1474065707008</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>1474065707091</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1474065707596</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1474065707820</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>1474065707890</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1474065708102</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1474065708400</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1474065708599</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>1474065708624</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1474065708997</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1474065709261</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>1474065709426</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>1474065709429</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>1474065709439</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1474065709477</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1474065709884</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>1474065710179</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>1474065710182</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1474065710218</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>1474065710488</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1474065710778</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>1474065710971</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1474065711077</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1474065711400</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1474065711673</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>1474065711706</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>1474065711996</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1474065712294</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>1474065712415</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1474065712593</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1474065712874</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1474065713090</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>1474065713217</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>1474065713376</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1474065713786</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1474065714034</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>1474065714050</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>1474065714341</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1474065714655</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>1474065714791</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1474065714946</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>1474065715276</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>1474065715502</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>1474065715504</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>1474065715507</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1474065715530</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1474065715824</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1474065716156</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>1474065716324</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>1474065716327</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1474065716404</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1474065716752</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1474065717100</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>1474065717106</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>1474065717120</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>1474065717122</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1474065717407</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>1474065717831</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1474065717877</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1474065718121</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>1474065718509</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>1474065718513</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212">
+        <v>1474065718521</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>1474065718528</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1474065718560</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>1474065719302</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>1474065719307</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>1474065719312</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1474065719694</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1474065720001</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>1474065720088</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>1474065720090</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1474065720464</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1474065720771</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>1474065720821</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>1474065720824</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>1474065720829</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>1474065720833</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>1474065720836</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1474065720969</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1474065721251</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1474065721575</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>1474065721602</v>
+      </c>
+      <c r="E232">
+        <f t="shared" ref="E196:E259" si="3">D232-D231</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1474065721938</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1474065722245</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>1474065722357</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1474065722676</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>1474065723184</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>1474065723186</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1474065723223</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>1474065723712</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>1474065723894</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>1474065723897</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1474065724201</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1474065724666</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>1474065724720</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1474065725146</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>1474065725493</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248">
+        <v>1474065725539</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>1474065725542</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1474065725817</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>1474065726107</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>1474065726305</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1474065726413</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1474065726845</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>1474065727033</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1474065727350</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1474065727689</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>1474065727783</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>1474065727786</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>1474065727789</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>1474065727793</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1474065728055</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1474065728420</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>1474065728496</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1474065728684</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1474065729033</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>1474065729227</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1474065729388</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1474065729711</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>1474065729926</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1474065730341</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>1474065730651</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>1474065730656</v>
+      </c>
+      <c r="E273">
+        <f t="shared" ref="E260:E323" si="4">D273-D272</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>1474065730659</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>1474065730664</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1474065730963</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>1474065731421</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1474065731584</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1474065731915</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>1474065732174</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1474065732231</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1474065732769</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>1474065732900</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1474065733100</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1474065733539</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>1474065733636</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>1474065733641</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>1474065733643</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>1474065733651</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>1474065733654</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>1474065733657</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" t="s">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>1474065733661</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1474065733986</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>1474065734418</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>1474065735169</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>1474065735195</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297">
+        <v>1474065735198</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298">
+        <v>1474065735202</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>1474065735205</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>1474065735208</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>1474065735211</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1474065735743</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>1474065735751</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1474065736075</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" t="s">
+        <v>2</v>
+      </c>
+      <c r="D305">
+        <v>1474065736094</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1474065736481</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" t="s">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>1474065736491</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1474065736806</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <v>1474065736825</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1474065737103</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>1474065737132</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1474065737417</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <v>1474065737425</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1474065737765</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>1474065737775</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1474065738080</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>1474065738086</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>1474065741037</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>1474065741048</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1474065741947</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>1474065741973</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>1474065742297</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>1474065742693</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>1474065742706</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2</v>
+      </c>
+      <c r="D325">
+        <v>1474065742709</v>
+      </c>
+      <c r="E325">
+        <f t="shared" ref="E324:E387" si="5">D325-D324</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1474065743017</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1474065743350</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <v>1474065743457</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1474065743645</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1474065744044</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" t="s">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>1474065744210</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332">
+        <v>1474065744260</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333">
+        <v>1474065744276</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1474065744384</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1474065744891</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2</v>
+      </c>
+      <c r="D336">
+        <v>1474065744997</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1474065745162</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>2</v>
+      </c>
+      <c r="D338">
+        <v>1474065745713</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1474065745748</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>0</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2</v>
+      </c>
+      <c r="D340">
+        <v>1474065745762</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" t="s">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>1474065745765</v>
+      </c>
+      <c r="E341">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>1474065746032</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>1474065746038</v>
+      </c>
+      <c r="E343">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1474065746430</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2</v>
+      </c>
+      <c r="D345">
+        <v>1474065746518</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1474065746862</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>1474065747175</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C348" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348">
+        <v>1474065747238</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2</v>
+      </c>
+      <c r="D349">
+        <v>1474065747242</v>
+      </c>
+      <c r="E349">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>0</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>1474065747607</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" t="s">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>1474065747613</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>1474065803361</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C353" t="s">
+        <v>2</v>
+      </c>
+      <c r="D353">
+        <v>1474065803384</v>
+      </c>
+      <c r="E353">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>0</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1474065803758</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>0</v>
+      </c>
+      <c r="C355" t="s">
+        <v>2</v>
+      </c>
+      <c r="D355">
+        <v>1474065803766</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>0</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1474065804023</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C357" t="s">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>1474065804109</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>1474065804280</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>0</v>
+      </c>
+      <c r="C359" t="s">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>1474065804292</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>1474065804636</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" t="s">
+        <v>2</v>
+      </c>
+      <c r="D361">
+        <v>1474065804655</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1474065804869</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2</v>
+      </c>
+      <c r="D363">
+        <v>1474065804893</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>0</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>1474065805077</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>1474065805474</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>2</v>
+      </c>
+      <c r="D366">
+        <v>1474065805651</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" t="s">
+        <v>2</v>
+      </c>
+      <c r="D367">
+        <v>1474065805654</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1474065805846</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>2</v>
+      </c>
+      <c r="D369">
+        <v>1474065805852</v>
+      </c>
+      <c r="E369">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1474065806103</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" t="s">
+        <v>2</v>
+      </c>
+      <c r="D371">
+        <v>1474065806361</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1474065806389</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" t="s">
+        <v>2</v>
+      </c>
+      <c r="D373">
+        <v>1474065806401</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1474065819489</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2</v>
+      </c>
+      <c r="D375">
+        <v>1474065819517</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>0</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1474065860629</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2</v>
+      </c>
+      <c r="D377">
+        <v>1474065860652</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1474065877796</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" t="s">
+        <v>2</v>
+      </c>
+      <c r="D379">
+        <v>1474065877810</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>1474065886702</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2</v>
+      </c>
+      <c r="D381">
+        <v>1474065886713</v>
+      </c>
+      <c r="E381">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1474065897183</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2</v>
+      </c>
+      <c r="D383">
+        <v>1474065897194</v>
+      </c>
+      <c r="E383">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1474065910360</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2</v>
+      </c>
+      <c r="D385">
+        <v>1474065910370</v>
+      </c>
+      <c r="E385">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1474065920017</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2</v>
+      </c>
+      <c r="D387">
+        <v>1474065920036</v>
+      </c>
+      <c r="E387">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1474065932563</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>0</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2</v>
+      </c>
+      <c r="D389">
+        <v>1474065932584</v>
+      </c>
+      <c r="E389">
+        <f t="shared" ref="E388:E433" si="6">D389-D388</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>0</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1474065943417</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2</v>
+      </c>
+      <c r="D391">
+        <v>1474065943428</v>
+      </c>
+      <c r="E391">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>0</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1474065957870</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" t="s">
+        <v>2</v>
+      </c>
+      <c r="D393">
+        <v>1474065957881</v>
+      </c>
+      <c r="E393">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1474065971827</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" t="s">
+        <v>2</v>
+      </c>
+      <c r="D395">
+        <v>1474065971838</v>
+      </c>
+      <c r="E395">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1474065974726</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" t="s">
+        <v>2</v>
+      </c>
+      <c r="D397">
+        <v>1474065974736</v>
+      </c>
+      <c r="E397">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>0</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1474065986637</v>
+      </c>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2</v>
+      </c>
+      <c r="D399">
+        <v>1474065986643</v>
+      </c>
+      <c r="E399">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>0</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1474066000204</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>0</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>1474066000216</v>
+      </c>
+      <c r="E401">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>1474066014533</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>0</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2</v>
+      </c>
+      <c r="D403">
+        <v>1474066014553</v>
+      </c>
+      <c r="E403">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>1474066029153</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C405" t="s">
+        <v>2</v>
+      </c>
+      <c r="D405">
+        <v>1474066029165</v>
+      </c>
+      <c r="E405">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>0</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>1474066037183</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>0</v>
+      </c>
+      <c r="C407" t="s">
+        <v>2</v>
+      </c>
+      <c r="D407">
+        <v>1474066037295</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>1474066052084</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409" t="s">
+        <v>2</v>
+      </c>
+      <c r="D409">
+        <v>1474066052091</v>
+      </c>
+      <c r="E409">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>0</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>1474066061183</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C411" t="s">
+        <v>2</v>
+      </c>
+      <c r="D411">
+        <v>1474066061194</v>
+      </c>
+      <c r="E411">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>1474066069826</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>0</v>
+      </c>
+      <c r="C413" t="s">
+        <v>2</v>
+      </c>
+      <c r="D413">
+        <v>1474066069838</v>
+      </c>
+      <c r="E413">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>0</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>1474066080314</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>0</v>
+      </c>
+      <c r="C415" t="s">
+        <v>2</v>
+      </c>
+      <c r="D415">
+        <v>1474066080341</v>
+      </c>
+      <c r="E415">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>0</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>1474066094205</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>0</v>
+      </c>
+      <c r="C417" t="s">
+        <v>2</v>
+      </c>
+      <c r="D417">
+        <v>1474066094212</v>
+      </c>
+      <c r="E417">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>0</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1</v>
+      </c>
+      <c r="D418">
+        <v>1474066110539</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>0</v>
+      </c>
+      <c r="C419" t="s">
+        <v>2</v>
+      </c>
+      <c r="D419">
+        <v>1474066110550</v>
+      </c>
+      <c r="E419">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>0</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1474066123769</v>
+      </c>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2</v>
+      </c>
+      <c r="D421">
+        <v>1474066123779</v>
+      </c>
+      <c r="E421">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>0</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>1474066129597</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>0</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2</v>
+      </c>
+      <c r="D423">
+        <v>1474066129609</v>
+      </c>
+      <c r="E423">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>0</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>1474066167989</v>
+      </c>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C425" t="s">
+        <v>2</v>
+      </c>
+      <c r="D425">
+        <v>1474066168000</v>
+      </c>
+      <c r="E425">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>0</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>1474066180159</v>
+      </c>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C427" t="s">
+        <v>2</v>
+      </c>
+      <c r="D427">
+        <v>1474066180169</v>
+      </c>
+      <c r="E427">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>1474066191931</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429" t="s">
+        <v>2</v>
+      </c>
+      <c r="D429">
+        <v>1474066191943</v>
+      </c>
+      <c r="E429">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>1474066224646</v>
+      </c>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C431" t="s">
+        <v>2</v>
+      </c>
+      <c r="D431">
+        <v>1474066224659</v>
+      </c>
+      <c r="E431">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>1474066232247</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433" t="s">
+        <v>2</v>
+      </c>
+      <c r="D433">
+        <v>1474066232264</v>
+      </c>
+      <c r="E433">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>